--- a/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
+++ b/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
@@ -534,18 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,7 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +871,19 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,21 +895,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,6 +923,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1333,7 +1333,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1399,7 +1399,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1448,7 +1448,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="49" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="49" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1593,7 +1593,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="49" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="50" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1623,7 +1623,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="49" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="50" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="50" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1748,12 +1748,12 @@
       <c r="B5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -2930,10 +2930,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2942,32 +2942,32 @@
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2976,34 +2976,34 @@
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -3012,40 +3012,40 @@
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -3054,20 +3054,20 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="25"/>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="25"/>
       <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="26"/>
       <c r="D19" s="36"/>
     </row>

--- a/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
+++ b/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
@@ -489,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,12 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,6 +889,15 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,19 +928,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1294,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1333,7 +1324,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1350,7 +1341,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1367,7 +1358,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1382,7 +1373,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1399,7 +1390,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="37" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1414,7 +1405,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1431,7 +1422,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -1448,7 +1439,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1465,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1480,7 +1471,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1495,7 +1486,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1512,7 +1503,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1527,7 +1518,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1544,7 +1535,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1559,7 +1550,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1576,7 +1567,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1593,7 +1584,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1608,7 +1599,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1623,7 +1614,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1640,7 +1631,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1657,7 +1648,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1674,7 +1665,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1692,8 +1683,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1748,12 +1740,12 @@
       <c r="B5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -2930,10 +2922,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="47" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2942,32 +2934,32 @@
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2976,34 +2968,34 @@
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -3012,40 +3004,40 @@
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -3054,20 +3046,20 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="25"/>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="25"/>
       <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="26"/>
       <c r="D19" s="36"/>
     </row>

--- a/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
+++ b/trunk/SPMP/CASOS DE USO/SPMP[Alimnova]DescripcionCasosDeUsoV5.0.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="150">
   <si>
     <t>Glosario</t>
   </si>
@@ -428,9 +428,6 @@
     <t xml:space="preserve">Asignación de propiedad comprada </t>
   </si>
   <si>
-    <t>LAURA [OK]</t>
-  </si>
-  <si>
     <t>cartas especiales</t>
   </si>
   <si>
@@ -438,6 +435,39 @@
   </si>
   <si>
     <t>Tener en cuenta propiedades especiales casinos y servicios públicos</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SUBIR AL RE</t>
+  </si>
+  <si>
+    <t>FALTA</t>
+  </si>
+  <si>
+    <t>NO NEC</t>
+  </si>
+  <si>
+    <t>SECUENCIA SERV</t>
+  </si>
+  <si>
+    <t>SECUENCIA CLIENTE</t>
+  </si>
+  <si>
+    <t>Comprar propiedad</t>
+  </si>
+  <si>
+    <t>LAU - DAV</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>GERMAN</t>
   </si>
 </sst>
 </file>
@@ -898,6 +928,9 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,16 +959,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -987,20 +1029,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla5" displayName="Tabla5" ref="A1:E23" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla5" displayName="Tabla5" ref="A1:G23" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G23">
     <filterColumn colId="2"/>
     <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:D23">
     <sortCondition descending="1" ref="C1:C23"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="DESCRIPCION" dataDxfId="3"/>
-    <tableColumn id="4" name="PRIORIDAD" dataDxfId="2"/>
-    <tableColumn id="3" name="COMENTARIOS" dataDxfId="1"/>
-    <tableColumn id="5" name="ENCARGADO" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="DESCRIPCION" dataDxfId="5"/>
+    <tableColumn id="4" name="PRIORIDAD" dataDxfId="4"/>
+    <tableColumn id="3" name="COMENTARIOS" dataDxfId="3"/>
+    <tableColumn id="5" name="ENCARGADO" dataDxfId="2"/>
+    <tableColumn id="6" name="SECUENCIA SERV" dataDxfId="1"/>
+    <tableColumn id="7" name="SECUENCIA CLIENTE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1291,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1304,9 +1350,10 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="106.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>79</v>
       </c>
@@ -1322,8 +1369,14 @@
       <c r="E1" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
@@ -1339,8 +1392,14 @@
       <c r="E2" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>51</v>
       </c>
@@ -1356,9 +1415,15 @@
       <c r="E3" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="F3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1371,8 +1436,14 @@
       <c r="E4" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -1388,8 +1459,14 @@
       <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="37" t="s">
         <v>52</v>
       </c>
@@ -1403,8 +1480,14 @@
       <c r="E6" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="38" t="s">
         <v>56</v>
       </c>
@@ -1415,13 +1498,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="37" t="s">
         <v>55</v>
       </c>
@@ -1435,10 +1524,16 @@
         <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>131</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="38" t="s">
         <v>59</v>
       </c>
@@ -1454,8 +1549,14 @@
       <c r="E9" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
@@ -1469,8 +1570,14 @@
       <c r="E10" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="39" t="s">
         <v>62</v>
       </c>
@@ -1484,13 +1591,19 @@
       <c r="E11" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C12" s="6">
         <v>7</v>
@@ -1501,8 +1614,14 @@
       <c r="E12" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="38" t="s">
         <v>87</v>
       </c>
@@ -1516,8 +1635,14 @@
       <c r="E13" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="37" t="s">
         <v>64</v>
       </c>
@@ -1533,8 +1658,14 @@
       <c r="E14" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="38" t="s">
         <v>65</v>
       </c>
@@ -1548,8 +1679,14 @@
       <c r="E15" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="37" t="s">
         <v>73</v>
       </c>
@@ -1565,8 +1702,14 @@
       <c r="E16" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="38" t="s">
         <v>69</v>
       </c>
@@ -1582,8 +1725,14 @@
       <c r="E17" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="37" t="s">
         <v>70</v>
       </c>
@@ -1597,8 +1746,14 @@
       <c r="E18" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
         <v>71</v>
       </c>
@@ -1612,8 +1767,14 @@
       <c r="E19" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="37" t="s">
         <v>74</v>
       </c>
@@ -1629,8 +1790,14 @@
       <c r="E20" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="38" t="s">
         <v>75</v>
       </c>
@@ -1646,8 +1813,14 @@
       <c r="E21" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="37" t="s">
         <v>76</v>
       </c>
@@ -1663,8 +1836,14 @@
       <c r="E22" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="38" t="s">
         <v>77</v>
       </c>
@@ -1679,6 +1858,12 @@
       </c>
       <c r="E23" s="6" t="s">
         <v>132</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1740,12 +1925,12 @@
       <c r="B5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -2922,10 +3107,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -2934,32 +3119,32 @@
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="50" t="s">
         <v>90</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2968,34 +3153,34 @@
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -3004,40 +3189,40 @@
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -3046,20 +3231,20 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="25"/>
       <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="25"/>
       <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="26"/>
       <c r="D19" s="36"/>
     </row>
@@ -3313,10 +3498,10 @@
     </row>
     <row r="21" spans="3:4" ht="30" customHeight="1">
       <c r="C21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="30" customHeight="1"/>
